--- a/results/20250402/evaluation_chd_49_noisy_0.2.xlsx
+++ b/results/20250402/evaluation_chd_49_noisy_0.2.xlsx
@@ -1473,10 +1473,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>0.58217</v>
+        <v>0.46866</v>
       </c>
       <c r="I26" t="n">
-        <v>0.04559</v>
+        <v>0.02628</v>
       </c>
     </row>
     <row r="27">
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>0.21838</v>
+        <v>0.04901</v>
       </c>
       <c r="I27" t="n">
-        <v>0.06392</v>
+        <v>0.02163</v>
       </c>
     </row>
     <row r="28">
@@ -1553,10 +1553,10 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.44644</v>
+        <v>0.43274</v>
       </c>
       <c r="I28" t="n">
-        <v>0.02936</v>
+        <v>0.02437</v>
       </c>
     </row>
     <row r="29">
@@ -1594,10 +1594,10 @@
         </is>
       </c>
       <c r="H29" t="n">
-        <v>0.02703</v>
+        <v>0.00036</v>
       </c>
       <c r="I29" t="n">
-        <v>0.01837</v>
+        <v>0.00177</v>
       </c>
     </row>
     <row r="30">
@@ -1633,10 +1633,10 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.58467</v>
+        <v>0.46828</v>
       </c>
       <c r="I30" t="n">
-        <v>0.04203</v>
+        <v>0.02473</v>
       </c>
     </row>
     <row r="31">
@@ -1672,10 +1672,10 @@
         </is>
       </c>
       <c r="H31" t="n">
-        <v>0.22054</v>
+        <v>0.04973</v>
       </c>
       <c r="I31" t="n">
-        <v>0.06294</v>
+        <v>0.02281</v>
       </c>
     </row>
     <row r="32">
@@ -1713,10 +1713,10 @@
         </is>
       </c>
       <c r="H32" t="n">
-        <v>0.4179</v>
+        <v>0.43102</v>
       </c>
       <c r="I32" t="n">
-        <v>0.03528</v>
+        <v>0.02617</v>
       </c>
     </row>
     <row r="33">
@@ -1754,10 +1754,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>0.0191</v>
+        <v>0.00108</v>
       </c>
       <c r="I33" t="n">
-        <v>0.01638</v>
+        <v>0.00293</v>
       </c>
     </row>
     <row r="34">
@@ -1793,10 +1793,10 @@
         </is>
       </c>
       <c r="H34" t="n">
-        <v>0.56615</v>
+        <v>0.52584</v>
       </c>
       <c r="I34" t="n">
-        <v>0.03756</v>
+        <v>0.01579</v>
       </c>
     </row>
     <row r="35">
@@ -1832,10 +1832,10 @@
         </is>
       </c>
       <c r="H35" t="n">
-        <v>0.2036</v>
+        <v>0.0018</v>
       </c>
       <c r="I35" t="n">
-        <v>0.06304</v>
+        <v>0.00441</v>
       </c>
     </row>
     <row r="36">
@@ -1873,10 +1873,10 @@
         </is>
       </c>
       <c r="H36" t="n">
-        <v>0.5478</v>
+        <v>0.52646</v>
       </c>
       <c r="I36" t="n">
-        <v>0.03516</v>
+        <v>0.01573</v>
       </c>
     </row>
     <row r="37">
@@ -1914,10 +1914,10 @@
         </is>
       </c>
       <c r="H37" t="n">
-        <v>0.17694</v>
+        <v>0.0018</v>
       </c>
       <c r="I37" t="n">
-        <v>0.05464</v>
+        <v>0.00441</v>
       </c>
     </row>
     <row r="38">
@@ -1953,10 +1953,10 @@
         </is>
       </c>
       <c r="H38" t="n">
-        <v>0.5662700000000001</v>
+        <v>0.5254799999999999</v>
       </c>
       <c r="I38" t="n">
-        <v>0.03739</v>
+        <v>0.01597</v>
       </c>
     </row>
     <row r="39">
@@ -1992,10 +1992,10 @@
         </is>
       </c>
       <c r="H39" t="n">
-        <v>0.20468</v>
+        <v>0.0018</v>
       </c>
       <c r="I39" t="n">
-        <v>0.06192</v>
+        <v>0.00441</v>
       </c>
     </row>
     <row r="40">
@@ -2033,10 +2033,10 @@
         </is>
       </c>
       <c r="H40" t="n">
-        <v>0.5472399999999999</v>
+        <v>0.52637</v>
       </c>
       <c r="I40" t="n">
-        <v>0.03462</v>
+        <v>0.01567</v>
       </c>
     </row>
     <row r="41">
@@ -2074,10 +2074,10 @@
         </is>
       </c>
       <c r="H41" t="n">
-        <v>0.17586</v>
+        <v>0.0018</v>
       </c>
       <c r="I41" t="n">
-        <v>0.05364</v>
+        <v>0.00441</v>
       </c>
     </row>
     <row r="42">
@@ -3073,10 +3073,10 @@
         </is>
       </c>
       <c r="H66" t="n">
-        <v>0.60584</v>
+        <v>0.42873</v>
       </c>
       <c r="I66" t="n">
-        <v>0.03272</v>
+        <v>0.01877</v>
       </c>
     </row>
     <row r="67">
@@ -3112,10 +3112,10 @@
         </is>
       </c>
       <c r="H67" t="n">
-        <v>0.28</v>
+        <v>0.03027</v>
       </c>
       <c r="I67" t="n">
-        <v>0.04354</v>
+        <v>0.01818</v>
       </c>
     </row>
     <row r="68">
@@ -3153,10 +3153,10 @@
         </is>
       </c>
       <c r="H68" t="n">
-        <v>0.46607</v>
+        <v>0.40932</v>
       </c>
       <c r="I68" t="n">
-        <v>0.03059</v>
+        <v>0.01968</v>
       </c>
     </row>
     <row r="69">
@@ -3194,10 +3194,10 @@
         </is>
       </c>
       <c r="H69" t="n">
-        <v>0.07459</v>
+        <v>0.00108</v>
       </c>
       <c r="I69" t="n">
-        <v>0.022</v>
+        <v>0.00293</v>
       </c>
     </row>
     <row r="70">
@@ -3233,10 +3233,10 @@
         </is>
       </c>
       <c r="H70" t="n">
-        <v>0.60464</v>
+        <v>0.43056</v>
       </c>
       <c r="I70" t="n">
-        <v>0.03188</v>
+        <v>0.01735</v>
       </c>
     </row>
     <row r="71">
@@ -3272,10 +3272,10 @@
         </is>
       </c>
       <c r="H71" t="n">
-        <v>0.27459</v>
+        <v>0.03207</v>
       </c>
       <c r="I71" t="n">
-        <v>0.04234</v>
+        <v>0.01803</v>
       </c>
     </row>
     <row r="72">
@@ -3313,10 +3313,10 @@
         </is>
       </c>
       <c r="H72" t="n">
-        <v>0.43034</v>
+        <v>0.40721</v>
       </c>
       <c r="I72" t="n">
-        <v>0.02952</v>
+        <v>0.02083</v>
       </c>
     </row>
     <row r="73">
@@ -3354,10 +3354,10 @@
         </is>
       </c>
       <c r="H73" t="n">
-        <v>0.05045</v>
+        <v>0.00216</v>
       </c>
       <c r="I73" t="n">
-        <v>0.01765</v>
+        <v>0.00461</v>
       </c>
     </row>
     <row r="74">
@@ -3393,10 +3393,10 @@
         </is>
       </c>
       <c r="H74" t="n">
-        <v>0.57686</v>
+        <v>0.5001100000000001</v>
       </c>
       <c r="I74" t="n">
-        <v>0.02644</v>
+        <v>0.01509</v>
       </c>
     </row>
     <row r="75">
@@ -3432,10 +3432,10 @@
         </is>
       </c>
       <c r="H75" t="n">
-        <v>0.2418</v>
+        <v>0.00216</v>
       </c>
       <c r="I75" t="n">
-        <v>0.04042</v>
+        <v>0.00461</v>
       </c>
     </row>
     <row r="76">
@@ -3473,10 +3473,10 @@
         </is>
       </c>
       <c r="H76" t="n">
-        <v>0.5187</v>
+        <v>0.50614</v>
       </c>
       <c r="I76" t="n">
-        <v>0.0314</v>
+        <v>0.01429</v>
       </c>
     </row>
     <row r="77">
@@ -3514,10 +3514,10 @@
         </is>
       </c>
       <c r="H77" t="n">
-        <v>0.16432</v>
+        <v>0.0036</v>
       </c>
       <c r="I77" t="n">
-        <v>0.03695</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="78">
@@ -3553,10 +3553,10 @@
         </is>
       </c>
       <c r="H78" t="n">
-        <v>0.57662</v>
+        <v>0.50004</v>
       </c>
       <c r="I78" t="n">
-        <v>0.02662</v>
+        <v>0.01512</v>
       </c>
     </row>
     <row r="79">
@@ -3592,10 +3592,10 @@
         </is>
       </c>
       <c r="H79" t="n">
-        <v>0.24036</v>
+        <v>0.00216</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0392</v>
+        <v>0.00461</v>
       </c>
     </row>
     <row r="80">
@@ -3633,10 +3633,10 @@
         </is>
       </c>
       <c r="H80" t="n">
-        <v>0.51753</v>
+        <v>0.50597</v>
       </c>
       <c r="I80" t="n">
-        <v>0.03155</v>
+        <v>0.0143</v>
       </c>
     </row>
     <row r="81">
@@ -3674,10 +3674,10 @@
         </is>
       </c>
       <c r="H81" t="n">
-        <v>0.16036</v>
+        <v>0.0036</v>
       </c>
       <c r="I81" t="n">
-        <v>0.03586</v>
+        <v>0.0051</v>
       </c>
     </row>
     <row r="82">
@@ -4673,10 +4673,10 @@
         </is>
       </c>
       <c r="H106" t="n">
-        <v>0.60139</v>
+        <v>0.46129</v>
       </c>
       <c r="I106" t="n">
-        <v>0.03893</v>
+        <v>0.01767</v>
       </c>
     </row>
     <row r="107">
@@ -4712,10 +4712,10 @@
         </is>
       </c>
       <c r="H107" t="n">
-        <v>0.26486</v>
+        <v>0.04685</v>
       </c>
       <c r="I107" t="n">
-        <v>0.06576</v>
+        <v>0.02101</v>
       </c>
     </row>
     <row r="108">
@@ -4753,10 +4753,10 @@
         </is>
       </c>
       <c r="H108" t="n">
-        <v>0.45504</v>
+        <v>0.42804</v>
       </c>
       <c r="I108" t="n">
-        <v>0.04318</v>
+        <v>0.0173</v>
       </c>
     </row>
     <row r="109">
@@ -4794,10 +4794,10 @@
         </is>
       </c>
       <c r="H109" t="n">
-        <v>0.04432</v>
+        <v>0.00216</v>
       </c>
       <c r="I109" t="n">
-        <v>0.02376</v>
+        <v>0.00461</v>
       </c>
     </row>
     <row r="110">
@@ -4833,10 +4833,10 @@
         </is>
       </c>
       <c r="H110" t="n">
-        <v>0.59945</v>
+        <v>0.46068</v>
       </c>
       <c r="I110" t="n">
-        <v>0.03898</v>
+        <v>0.01907</v>
       </c>
     </row>
     <row r="111">
@@ -4872,10 +4872,10 @@
         </is>
       </c>
       <c r="H111" t="n">
-        <v>0.26378</v>
+        <v>0.04541</v>
       </c>
       <c r="I111" t="n">
-        <v>0.06378</v>
+        <v>0.02139</v>
       </c>
     </row>
     <row r="112">
@@ -4913,10 +4913,10 @@
         </is>
       </c>
       <c r="H112" t="n">
-        <v>0.42289</v>
+        <v>0.4258</v>
       </c>
       <c r="I112" t="n">
-        <v>0.04067</v>
+        <v>0.01662</v>
       </c>
     </row>
     <row r="113">
@@ -4954,10 +4954,10 @@
         </is>
       </c>
       <c r="H113" t="n">
-        <v>0.03387</v>
+        <v>0.00324</v>
       </c>
       <c r="I113" t="n">
-        <v>0.01676</v>
+        <v>0.00563</v>
       </c>
     </row>
     <row r="114">
@@ -4993,10 +4993,10 @@
         </is>
       </c>
       <c r="H114" t="n">
-        <v>0.57477</v>
+        <v>0.52014</v>
       </c>
       <c r="I114" t="n">
-        <v>0.03815</v>
+        <v>0.01407</v>
       </c>
     </row>
     <row r="115">
@@ -5032,10 +5032,10 @@
         </is>
       </c>
       <c r="H115" t="n">
-        <v>0.22559</v>
+        <v>0.00468</v>
       </c>
       <c r="I115" t="n">
-        <v>0.06342</v>
+        <v>0.00726</v>
       </c>
     </row>
     <row r="116">
@@ -5073,10 +5073,10 @@
         </is>
       </c>
       <c r="H116" t="n">
-        <v>0.54693</v>
+        <v>0.52173</v>
       </c>
       <c r="I116" t="n">
-        <v>0.03719</v>
+        <v>0.01344</v>
       </c>
     </row>
     <row r="117">
@@ -5114,10 +5114,10 @@
         </is>
       </c>
       <c r="H117" t="n">
-        <v>0.18667</v>
+        <v>0.00541</v>
       </c>
       <c r="I117" t="n">
-        <v>0.0562</v>
+        <v>0.00764</v>
       </c>
     </row>
     <row r="118">
@@ -5153,10 +5153,10 @@
         </is>
       </c>
       <c r="H118" t="n">
-        <v>0.57463</v>
+        <v>0.5204299999999999</v>
       </c>
       <c r="I118" t="n">
-        <v>0.03722</v>
+        <v>0.01434</v>
       </c>
     </row>
     <row r="119">
@@ -5192,10 +5192,10 @@
         </is>
       </c>
       <c r="H119" t="n">
-        <v>0.22595</v>
+        <v>0.00468</v>
       </c>
       <c r="I119" t="n">
-        <v>0.06072</v>
+        <v>0.00726</v>
       </c>
     </row>
     <row r="120">
@@ -5233,10 +5233,10 @@
         </is>
       </c>
       <c r="H120" t="n">
-        <v>0.54655</v>
+        <v>0.52137</v>
       </c>
       <c r="I120" t="n">
-        <v>0.03741</v>
+        <v>0.01323</v>
       </c>
     </row>
     <row r="121">
@@ -5274,10 +5274,10 @@
         </is>
       </c>
       <c r="H121" t="n">
-        <v>0.18631</v>
+        <v>0.00505</v>
       </c>
       <c r="I121" t="n">
-        <v>0.05564</v>
+        <v>0.00724</v>
       </c>
     </row>
     <row r="122">
@@ -6273,10 +6273,10 @@
         </is>
       </c>
       <c r="H146" t="n">
-        <v>0.60219</v>
+        <v>0.4259</v>
       </c>
       <c r="I146" t="n">
-        <v>0.04086</v>
+        <v>0.02026</v>
       </c>
     </row>
     <row r="147">
@@ -6312,10 +6312,10 @@
         </is>
       </c>
       <c r="H147" t="n">
-        <v>0.28865</v>
+        <v>0.02306</v>
       </c>
       <c r="I147" t="n">
-        <v>0.05444</v>
+        <v>0.01531</v>
       </c>
     </row>
     <row r="148">
@@ -6353,10 +6353,10 @@
         </is>
       </c>
       <c r="H148" t="n">
-        <v>0.47858</v>
+        <v>0.40089</v>
       </c>
       <c r="I148" t="n">
-        <v>0.03224</v>
+        <v>0.01984</v>
       </c>
     </row>
     <row r="149">
@@ -6394,10 +6394,10 @@
         </is>
       </c>
       <c r="H149" t="n">
-        <v>0.08649</v>
+        <v>0.00144</v>
       </c>
       <c r="I149" t="n">
-        <v>0.03503</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="150">
@@ -6433,10 +6433,10 @@
         </is>
       </c>
       <c r="H150" t="n">
-        <v>0.60336</v>
+        <v>0.42748</v>
       </c>
       <c r="I150" t="n">
-        <v>0.03933</v>
+        <v>0.01997</v>
       </c>
     </row>
     <row r="151">
@@ -6472,10 +6472,10 @@
         </is>
       </c>
       <c r="H151" t="n">
-        <v>0.28973</v>
+        <v>0.02306</v>
       </c>
       <c r="I151" t="n">
-        <v>0.05379</v>
+        <v>0.01488</v>
       </c>
     </row>
     <row r="152">
@@ -6513,10 +6513,10 @@
         </is>
       </c>
       <c r="H152" t="n">
-        <v>0.42914</v>
+        <v>0.40123</v>
       </c>
       <c r="I152" t="n">
-        <v>0.0325</v>
+        <v>0.01981</v>
       </c>
     </row>
     <row r="153">
@@ -6554,10 +6554,10 @@
         </is>
       </c>
       <c r="H153" t="n">
-        <v>0.05153</v>
+        <v>0.00396</v>
       </c>
       <c r="I153" t="n">
-        <v>0.03042</v>
+        <v>0.00678</v>
       </c>
     </row>
     <row r="154">
@@ -6593,10 +6593,10 @@
         </is>
       </c>
       <c r="H154" t="n">
-        <v>0.5872000000000001</v>
+        <v>0.49026</v>
       </c>
       <c r="I154" t="n">
-        <v>0.03242</v>
+        <v>0.01312</v>
       </c>
     </row>
     <row r="155">
@@ -6632,10 +6632,10 @@
         </is>
       </c>
       <c r="H155" t="n">
-        <v>0.25514</v>
+        <v>0.00144</v>
       </c>
       <c r="I155" t="n">
-        <v>0.05282</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="156">
@@ -6673,10 +6673,10 @@
         </is>
       </c>
       <c r="H156" t="n">
-        <v>0.52084</v>
+        <v>0.49629</v>
       </c>
       <c r="I156" t="n">
-        <v>0.03303</v>
+        <v>0.01255</v>
       </c>
     </row>
     <row r="157">
@@ -6714,10 +6714,10 @@
         </is>
       </c>
       <c r="H157" t="n">
-        <v>0.16793</v>
+        <v>0.00396</v>
       </c>
       <c r="I157" t="n">
-        <v>0.04376</v>
+        <v>0.00678</v>
       </c>
     </row>
     <row r="158">
@@ -6753,10 +6753,10 @@
         </is>
       </c>
       <c r="H158" t="n">
-        <v>0.58816</v>
+        <v>0.49074</v>
       </c>
       <c r="I158" t="n">
-        <v>0.03231</v>
+        <v>0.01334</v>
       </c>
     </row>
     <row r="159">
@@ -6792,10 +6792,10 @@
         </is>
       </c>
       <c r="H159" t="n">
-        <v>0.25586</v>
+        <v>0.00144</v>
       </c>
       <c r="I159" t="n">
-        <v>0.05393</v>
+        <v>0.0033</v>
       </c>
     </row>
     <row r="160">
@@ -6833,10 +6833,10 @@
         </is>
       </c>
       <c r="H160" t="n">
-        <v>0.52019</v>
+        <v>0.49677</v>
       </c>
       <c r="I160" t="n">
-        <v>0.03128</v>
+        <v>0.01301</v>
       </c>
     </row>
     <row r="161">
@@ -6874,10 +6874,10 @@
         </is>
       </c>
       <c r="H161" t="n">
-        <v>0.1636</v>
+        <v>0.00432</v>
       </c>
       <c r="I161" t="n">
-        <v>0.04382</v>
+        <v>0.0068</v>
       </c>
     </row>
   </sheetData>
